--- a/Examples/GUI_Truss2D/GUI_Arch_Truss_2.xlsx
+++ b/Examples/GUI_Truss2D/GUI_Arch_Truss_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\pysead\Examples\GUI_Truss2D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xelonix\Documents\_Github\pysead\Examples\GUI_Truss2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05843E9F-2EE2-48EE-883C-96F417FD7633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FB35B8-23DA-4D5A-BB18-AD5ED3E66E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
   <si>
     <t>Node</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>LIVE</t>
+  </si>
+  <si>
+    <t>self-weight</t>
   </si>
 </sst>
 </file>
@@ -184,9 +187,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -224,9 +227,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,26 +262,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,26 +297,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3703,8 +3672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B53155-BB13-4614-B5A6-1947AD230414}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3719,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3727,7 +3696,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3735,12 +3704,15 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3780,6 +3752,324 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CD7325-983D-494C-826E-0266B7CDB4DE}">
+  <dimension ref="B1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F943792-D30C-4A9F-A4E5-9110947F5C37}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>7.43</v>
+      </c>
+      <c r="D2">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>7.15</v>
+      </c>
+      <c r="D3">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>6.7</v>
+      </c>
+      <c r="D4">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>6.08</v>
+      </c>
+      <c r="D5">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>5.32</v>
+      </c>
+      <c r="D6">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>4.42</v>
+      </c>
+      <c r="D7">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>3.41</v>
+      </c>
+      <c r="D8">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="D9">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>1.18</v>
+      </c>
+      <c r="D10">
+        <v>7.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>42</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>7.52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>-1.18</v>
+      </c>
+      <c r="D12">
+        <v>7.43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>-2.3199999999999998</v>
+      </c>
+      <c r="D13">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>-3.41</v>
+      </c>
+      <c r="D14">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>-4.42</v>
+      </c>
+      <c r="D15">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>-5.32</v>
+      </c>
+      <c r="D16">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>-6.08</v>
+      </c>
+      <c r="D17">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>-6.7</v>
+      </c>
+      <c r="D18">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>-7.15</v>
+      </c>
+      <c r="D19">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>-7.43</v>
+      </c>
+      <c r="D20">
+        <v>1.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5609FD3-9E4C-4835-AFDA-EF87A84865C0}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3807,10 +4097,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>7.43</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1.18</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3821,10 +4111,10 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>7.15</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2.3199999999999998</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3835,10 +4125,10 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3.41</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3849,10 +4139,10 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>6.08</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>4.42</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3863,10 +4153,10 @@
         <v>24</v>
       </c>
       <c r="C6">
-        <v>5.32</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>5.32</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3877,10 +4167,10 @@
         <v>28</v>
       </c>
       <c r="C7">
-        <v>4.42</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>6.08</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3891,10 +4181,10 @@
         <v>34</v>
       </c>
       <c r="C8">
-        <v>3.41</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>6.7</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3905,10 +4195,10 @@
         <v>39</v>
       </c>
       <c r="C9">
-        <v>2.3199999999999998</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>7.15</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3919,10 +4209,10 @@
         <v>41</v>
       </c>
       <c r="C10">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>7.43</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3936,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.52</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3947,10 +4237,10 @@
         <v>40</v>
       </c>
       <c r="C12">
-        <v>-1.18</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>7.43</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3961,10 +4251,10 @@
         <v>38</v>
       </c>
       <c r="C13">
-        <v>-2.3199999999999998</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>7.15</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3975,10 +4265,10 @@
         <v>33</v>
       </c>
       <c r="C14">
-        <v>-3.41</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>6.7</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3989,10 +4279,10 @@
         <v>27</v>
       </c>
       <c r="C15">
-        <v>-4.42</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>6.08</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4003,10 +4293,10 @@
         <v>23</v>
       </c>
       <c r="C16">
-        <v>-5.32</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>5.32</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4017,10 +4307,10 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>-6.08</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>4.42</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4031,10 +4321,10 @@
         <v>15</v>
       </c>
       <c r="C18">
-        <v>-6.7</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>3.41</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4045,10 +4335,10 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>-7.15</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>2.3199999999999998</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4059,594 +4349,10 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>-7.43</v>
-      </c>
-      <c r="D20">
-        <v>1.18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F943792-D30C-4A9F-A4E5-9110947F5C37}">
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="A2:D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>-1.33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>-1.33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>-1.33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>-1.33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>24</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>-1.33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>28</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>-1.33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>34</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>-1.33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>39</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>-1.33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>41</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>-1.33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>42</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>-1.33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>40</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>-1.33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>38</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>-1.33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>33</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>-1.33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>27</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>-1.33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>23</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>-1.33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>-1.33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>15</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>-1.33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>11</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>-1.33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
-      <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
         <v>-1.33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5609FD3-9E4C-4835-AFDA-EF87A84865C0}">
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>-2.66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>-2.66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>-2.66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>-2.66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>24</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>-2.66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>28</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>-2.66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>34</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>-2.66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>39</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>-2.66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>41</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>-2.66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>42</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>-2.66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>40</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>-2.66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>38</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>-2.66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>33</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>-2.66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>27</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>-2.66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>23</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>-2.66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>-2.66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>15</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>-2.66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>11</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>-2.66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>-2.66</v>
       </c>
     </row>
   </sheetData>
@@ -4656,15 +4362,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1532AA83-011D-430E-88E0-C4F71D210255}">
-  <dimension ref="B1:D1"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A2" sqref="A2:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4673,6 +4379,272 @@
       </c>
       <c r="D1" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>-2.66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-2.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>-2.66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-2.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-2.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>-2.66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>-2.66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-2.66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-2.66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>42</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>-2.66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>-2.66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>-2.66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>-2.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>-2.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>-2.66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>-2.66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>-2.66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>-2.66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>-2.66</v>
       </c>
     </row>
   </sheetData>
